--- a/biology/Zoologie/Charles_Dadant/Charles_Dadant.xlsx
+++ b/biology/Zoologie/Charles_Dadant/Charles_Dadant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Dadant est né le 23 mai 1817 à Vaux-sous-Aubigny (aujourd’hui Le Montsaugeonnais) en Haute-Marne (Royaume de France) et mort le 16 juillet 1902 à Hamilton dans l’Illinois (États-Unis) où il émigra en 1863. Dadant est considéré comme l'un des fondateurs de l'apiculture moderne. Il inventa la ruche à cadre Dadant (42 × 26,6 cm) et fonda à Hamilton l'une des premières fabriques de matériel apicole. L'usine reste la propriété de la famille Dadant.
 Sa rencontre en 1849 avec l'inventeur Paix de Beauvoys (identifié comme l'auteur de la première ruche à cadres) et la lecture de son ouvrage, furent un moment marquant de sa vie.
